--- a/DAM/UF2/3_Buelin_Black_Box/JocDeProves.xlsx
+++ b/DAM/UF2/3_Buelin_Black_Box/JocDeProves.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -61,6 +61,63 @@
   </si>
   <si>
     <t>taula buida</t>
+  </si>
+  <si>
+    <t>sense equipatge</t>
+  </si>
+  <si>
+    <t>equipatge de ma OK</t>
+  </si>
+  <si>
+    <t>equipatge de ma, excès de pes</t>
+  </si>
+  <si>
+    <t>equipatge de ma, excès de mida</t>
+  </si>
+  <si>
+    <t>equipatge de mà,excès total</t>
+  </si>
+  <si>
+    <t>maletes OK</t>
+  </si>
+  <si>
+    <t>excés de maletes</t>
+  </si>
+  <si>
+    <t>maletes OK límit</t>
+  </si>
+  <si>
+    <t>maletes (1-2) fora rang de pes</t>
+  </si>
+  <si>
+    <t>excès total</t>
+  </si>
+  <si>
+    <t>excès (1-2)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Tarja activada</t>
+  </si>
+  <si>
+    <t>combinat sense pagar</t>
+  </si>
+  <si>
+    <t>combinat pagant</t>
+  </si>
+  <si>
+    <t>taula buida (dimensió )</t>
+  </si>
+  <si>
+    <t>taula de dimensió 1</t>
+  </si>
+  <si>
+    <t>taula de dimensió 2</t>
+  </si>
+  <si>
+    <t>taula de dimensió 4</t>
   </si>
 </sst>
 </file>
@@ -114,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -239,11 +296,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -258,10 +426,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +465,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,6 +489,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,39 +794,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M40"/>
+  <dimension ref="A2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:16">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -655,67 +864,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="M6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="P6" t="str">
+        <f xml:space="preserve"> "assertEquals( "&amp; L6&amp; " , app.getSobrecostPerEquipatge(new int[]{"&amp;B6&amp;","&amp;C6&amp;","&amp;D6&amp;"}, 10, new int[]{"&amp;F6&amp;","&amp;G6&amp;","&amp;H6&amp;"},"&amp;K6&amp;"), 0.001); //"&amp; M6</f>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{null,,},false), 0.001); //sense equipatge</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1">
+      <c r="M7" s="29"/>
+      <c r="N7" s="27"/>
+      <c r="P7" t="str">
+        <f t="shared" ref="P7:P28" si="0" xml:space="preserve"> "assertEquals( "&amp; L7&amp; " , app.getSobrecostPerEquipatge(new int[]{"&amp;B7&amp;","&amp;C7&amp;","&amp;D7&amp;"}, 10, new int[]{"&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;"},"&amp;K7&amp;"), 0.001); //"&amp; M7</f>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{taula buida,,},false), 0.001); //</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickTop="1">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="4"/>
       <c r="F8" s="1">
         <v>0</v>
@@ -730,435 +951,834 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="23"/>
+      <c r="N8" s="27"/>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{0,,},false), 0.001); //</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="3">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{20,20,20}, 10, new int[]{0,,},false), 0.001); //equipatge de ma OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="3">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{20,20,20}, 10, new int[]{0,,},false), 0.001); //equipatge de ma OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="3">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 20 , app.getSobrecostPerEquipatge(new int[]{20,20,20}, 10, new int[]{0,,},false), 0.001); //equipatge de ma, excès de pes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{30,30,30}, 10, new int[]{0,,},false), 0.001); //equipatge de ma OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 60 , app.getSobrecostPerEquipatge(new int[]{31,15,15}, 10, new int[]{0,,},false), 0.001); //equipatge de ma, excès de mida</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1">
+        <v>60</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 60 , app.getSobrecostPerEquipatge(new int[]{15,31,15}, 10, new int[]{0,,},false), 0.001); //equipatge de ma, excès de mida</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1">
+        <v>60</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 60 , app.getSobrecostPerEquipatge(new int[]{15,15,31}, 10, new int[]{0,,},false), 0.001); //equipatge de ma, excès de mida</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10">
+        <v>23</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="13">
+        <v>120</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 120 , app.getSobrecostPerEquipatge(new int[]{15,15,31}, 10, new int[]{0,,},false), 0.001); //equipatge de mà,excès total</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickTop="1">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="B17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{15,,},false), 0.001); //maletes OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="K18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{15,15,},false), 0.001); //maletes OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>15</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1">
+        <v>150</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 150 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{15,15,15},false), 0.001); //excés de maletes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="K20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{20,20,},false), 0.001); //maletes OK límit</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="K21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 20 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{21,20,},false), 0.001); //maletes (1-2) fora rang de pes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1">
+        <v>21</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="K22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1">
+        <v>40</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 40 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{21,21,},false), 0.001); //excès (1-2)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="1">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1">
+        <v>15</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="K23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="1">
+        <v>190</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 190 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{21,21,15},false), 0.001); //excès total</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="B24" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13">
+        <v>21</v>
+      </c>
+      <c r="G24" s="13">
+        <v>21</v>
+      </c>
+      <c r="H24" s="13">
+        <v>15</v>
+      </c>
+      <c r="I24" s="13">
+        <v>15</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="13">
+        <v>340</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 340 , app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{21,21,15},false), 0.001); //</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickTop="1">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="B25" s="14">
+        <v>20</v>
+      </c>
+      <c r="C25" s="14">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14">
+        <v>20</v>
+      </c>
+      <c r="E25" s="15">
+        <v>15</v>
+      </c>
+      <c r="F25" s="16">
+        <v>15</v>
+      </c>
+      <c r="G25" s="16">
+        <v>15</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{20,20,20}, 10, new int[]{15,15,},false), 0.001); //combinat sense pagar</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" t="s">
+      <c r="B26" s="18">
+        <v>31</v>
+      </c>
+      <c r="C26" s="18">
+        <v>30</v>
+      </c>
+      <c r="D26" s="18">
+        <v>30</v>
+      </c>
+      <c r="E26" s="19">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20">
+        <v>21</v>
+      </c>
+      <c r="G26" s="20">
+        <v>21</v>
+      </c>
+      <c r="H26" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" s="14" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="20">
+        <f>60+20+2*20+10*10</f>
+        <v>220</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 220 , app.getSobrecostPerEquipatge(new int[]{31,30,30}, 10, new int[]{21,21,10},false), 0.001); //combinat pagant</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickTop="1">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7">
+        <f>60+20+2*20+10*10+2</f>
+        <v>222</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 222 , app.getSobrecostPerEquipatge(new int[]{31,30,30}, 10, new int[]{21,21,10},true), 0.001); //Tarja activada</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
+        <v>15</v>
+      </c>
+      <c r="G28" s="7">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23"/>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals( 0 , app.getSobrecostPerEquipatge(new int[]{20,20,20}, 10, new int[]{15,15,},true), 0.001); //</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="B33" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
         <v>1</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H34" s="11">
         <v>2</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I34" s="11">
         <v>3</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J34" s="11">
         <v>4</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A33">
+      <c r="P34" t="str">
+        <f xml:space="preserve"> "try { app.getSobrecostPerEquipatge(new int[]{"&amp;B34&amp;","&amp;C34&amp;","&amp;D34&amp;"}, 10, new int[]{"&amp;F34&amp;","&amp;G34&amp;","&amp;H34&amp;"},"&amp;K34&amp;"); fail(""""); } catch(IllegalArgumentException e){}//"&amp; M34</f>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{x,y,z}, 10, new int[]{0,1,2},tarja); fail(""); } catch(IllegalArgumentException e){}//cas</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="L35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="P35" t="str">
+        <f t="shared" ref="P35:P51" si="1" xml:space="preserve"> "try { app.getSobrecostPerEquipatge(new int[]{"&amp;B35&amp;","&amp;C35&amp;","&amp;D35&amp;"}, 10, new int[]{"&amp;F35&amp;","&amp;G35&amp;","&amp;H35&amp;"},"&amp;K35&amp;"); fail(""""); } catch(IllegalArgumentException e){}//"&amp; M35</f>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{taula buida (dimensió ),,}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -1167,17 +1787,25 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="L36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{taula de dimensió 1,,}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -1186,17 +1814,25 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="L37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="P37" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{taula de dimensió 2,,}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -1205,33 +1841,460 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="L38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="P38" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{taula de dimensió 4,,}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="L39" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="L40" s="7" t="s">
+      <c r="M39" s="1"/>
+      <c r="P39" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{-1,15,15}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="1"/>
+      <c r="P40" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{15,-1,15}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="1"/>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{15,15,-1}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3">
+        <v>15</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="1"/>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{0,15,15}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>15</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="1"/>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{15,0,15}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" s="3">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="1"/>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{15,15,0}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45">
         <v>11</v>
       </c>
+      <c r="B45" s="3">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3">
+        <v>15</v>
+      </c>
+      <c r="D45" s="3">
+        <v>15</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="1"/>
+      <c r="P45" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{15,15,15}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="1"/>
+      <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3">
+        <v>15</v>
+      </c>
+      <c r="D47" s="3">
+        <v>15</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="1"/>
+      <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{15,15,15}, 10, new int[]{,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="1"/>
+      <c r="P48" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{-1,,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="1"/>
+      <c r="P49" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{15,-1,},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="1"/>
+      <c r="P50" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{15,15,-1},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="P51" t="str">
+        <f t="shared" si="1"/>
+        <v>try { app.getSobrecostPerEquipatge(new int[]{null,,}, 10, new int[]{15,0,15},false); fail(""); } catch(IllegalArgumentException e){}//</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickTop="1">
+      <c r="L52" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="L53" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="25">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:J33"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
